--- a/hp1_clean_test.xlsx
+++ b/hp1_clean_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="396">
   <si>
     <t>zinc_id</t>
   </si>
@@ -34,556 +34,1174 @@
     <t>similarity</t>
   </si>
   <si>
-    <t>ZINC000002138640</t>
-  </si>
-  <si>
-    <t>COC1OC(COC(=O)CNC(=O)OC(C)(C)C)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000005152239</t>
-  </si>
-  <si>
-    <t>CC(=O)Nc1ccc(OC2OC(CO)C(O)C(O)C2NC(C)=O)cc1</t>
-  </si>
-  <si>
-    <t>ZINC000004042950</t>
-  </si>
-  <si>
-    <t>COc1cc(C=O)ccc1OC1OC(CO)C(O)C(O)C1NC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000032106923</t>
-  </si>
-  <si>
-    <t>CC(=O)OCC1OC(OC(C)=O)C2NC(=O)C(=O)NC2C1OC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000019898995</t>
-  </si>
-  <si>
-    <t>O=C(CNC(=O)OCc1ccccc1)NC1C(O)OC(CO)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000004347030</t>
-  </si>
-  <si>
-    <t>COC(=O)c1ccccc1OC1OC(CO)C(O)C(O)C1NC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000097142191</t>
-  </si>
-  <si>
-    <t>CC(=O)NC1C(Oc2ccc(C(C)=O)c(O)c2)OC(CO)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000005152238</t>
-  </si>
-  <si>
-    <t>CC(=O)Nc1ccccc1OC1OC(CO)C(O)C(O)C1NC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000004102143</t>
-  </si>
-  <si>
-    <t>CC1CCC2C(C(=O)[O-])=COC(OC3OC(CO)C(O)C(O)C3O)C12</t>
-  </si>
-  <si>
-    <t>ZINC000004102166</t>
-  </si>
-  <si>
-    <t>O=C([O-])C1=COC(OC2OC(CO)C(O)C(O)C2O)C2C(CO)=CCC12</t>
-  </si>
-  <si>
-    <t>ZINC000031155896</t>
-  </si>
-  <si>
-    <t>OCC(COC1OC(CO)C(O)C(O)C1O)c1ccc2c(c1)OCO2</t>
-  </si>
-  <si>
-    <t>ZINC000061989700</t>
-  </si>
-  <si>
-    <t>NC(Cc1c[nH]c2ccccc12)C(=O)OCC1OC(O)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000257347364</t>
-  </si>
-  <si>
-    <t>NS(=O)(=O)c1ccc([N-]C2(O)OC(CO)C(O)C(O)C2O)cc1</t>
-  </si>
-  <si>
-    <t>NS(=O)(=O)c1ccc(NC2(O)OC(CO)C(O)C(O)C2O)cc1</t>
-  </si>
-  <si>
-    <t>ZINC000034647720</t>
-  </si>
-  <si>
-    <t>COc1cc(C=CC(=O)OCC2OC(O)C(O)C(O)C2O)ccc1O</t>
-  </si>
-  <si>
-    <t>ZINC000004082214</t>
-  </si>
-  <si>
-    <t>COc1cc2ccc(=O)oc2cc1OC1OC(CO)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000038697541</t>
-  </si>
-  <si>
-    <t>COc1cc(C(=O)[O-])cc(OC)c1OC1OC(CO)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000001784491</t>
-  </si>
-  <si>
-    <t>COc1cc2ccc(=O)oc2c(OC2OC(CO)C(O)C(O)C2O)c1[O-]</t>
-  </si>
-  <si>
-    <t>COc1cc2ccc(=O)oc2c(OC2OC(CO)C(O)C(O)C2O)c1O</t>
-  </si>
-  <si>
-    <t>ZINC000003779261</t>
-  </si>
-  <si>
-    <t>COc1cc(C=CCO)cc(OC)c1OC1OC(CO)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000031155496</t>
-  </si>
-  <si>
-    <t>COc1ccc(CCC(=O)[O-])c(OC2OC(CO)C(O)C(O)C2O)c1</t>
-  </si>
-  <si>
-    <t>ZINC000031156069</t>
-  </si>
-  <si>
-    <t>Cc1cc(=O)c2c(O)cc(OC3OC(CO)C(O)C(O)C3O)cc2o1</t>
-  </si>
-  <si>
-    <t>Cc1cc(=O)c2c([O-])cc(OC3OC(CO)C(O)C(O)C3O)cc2o1</t>
-  </si>
-  <si>
-    <t>Cc1cc([O-])c2c(=O)cc(OC3OC(CO)C(O)C(O)C3O)cc-2o1</t>
-  </si>
-  <si>
-    <t>Cc1cc(O)c2c(=O)cc(OC3OC(CO)C(O)C(O)C3O)cc-2o1</t>
-  </si>
-  <si>
-    <t>ZINC000220742837</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)[nH]cc(CC(=O)NC2C3CCOC3C2NS(C)(=O)=O)c1=O</t>
-  </si>
-  <si>
-    <t>ZINC000219999644</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)NC1C(NC(=O)c2[nH]nc3c2COCC3)C2CCOC21</t>
-  </si>
-  <si>
-    <t>ZINC000222484488</t>
-  </si>
-  <si>
-    <t>COc1c[nH]c(C(=O)NC2C3CCOC3C2NS(C)(=O)=O)cc1=O</t>
-  </si>
-  <si>
-    <t>ZINC000222547028</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)NC1C(NC(=O)CCn2ccc(=O)[nH]c2=O)C2CCOC21</t>
-  </si>
-  <si>
-    <t>ZINC000008738368</t>
-  </si>
-  <si>
-    <t>CC(=O)OC1C(=O)OC2C1OC(n1ccc(=O)[nH]c1=O)C2OC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000223613258</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)NC1C(NC(=O)c2ccc3nnnn3c2)C2CCOC21</t>
-  </si>
-  <si>
-    <t>ZINC000004214908</t>
-  </si>
-  <si>
-    <t>CC(=O)OCC1OC(n2ncc(=O)[n-]c2=O)C(OC(C)=O)C1OC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000219709829</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)NC1C(NC(=O)c2ccn3nnnc3c2)C2CCOC21</t>
-  </si>
-  <si>
-    <t>ZINC000016021941</t>
-  </si>
-  <si>
-    <t>COCCN1C(=O)C2C(CC(N)=O)NC3(C(=O)Nc4ccccc43)C2C1=O</t>
-  </si>
-  <si>
-    <t>ZINC000012660923</t>
-  </si>
-  <si>
-    <t>CC(=O)OC1COC(n2ncc(=O)[n-]c2=O)C(OC(C)=O)C1OC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000222530157</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)NC1C(NC(=O)CCC2=NNC(=O)CC2)C2CCOC21</t>
-  </si>
-  <si>
-    <t>ZINC000223761585</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)NC1C(NC(=O)Cn2ccc(=O)[nH]c2=O)C2CCOC21</t>
-  </si>
-  <si>
-    <t>ZINC000021299253</t>
-  </si>
-  <si>
-    <t>CC(=O)C(O)C1OC(n2ccc(=O)[nH]c2=O)C(O)(C(C)=O)C1(O)C(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000219257048</t>
-  </si>
-  <si>
-    <t>CN1CC(=O)N(CC(=O)NC2C3CCOC3C2NS(C)(=O)=O)C1=O</t>
-  </si>
-  <si>
-    <t>ZINC000008740325</t>
-  </si>
-  <si>
-    <t>CN1CCN(c2nc3c(N)ncnc3n2C2OC(CO)C(O)C2O)CC1</t>
-  </si>
-  <si>
-    <t>ZINC000075260902</t>
-  </si>
-  <si>
-    <t>O=c1[nH]cnc2nc(N3CCCCC3)n(C3OC(CO)C(O)C3O)c12</t>
-  </si>
-  <si>
-    <t>ZINC000222302050</t>
-  </si>
-  <si>
-    <t>Cc1cc(C)n(CC(=O)NC2C3CCOC3C2NS(C)(=O)=O)c(=O)n1</t>
-  </si>
-  <si>
-    <t>ZINC000008740366</t>
-  </si>
-  <si>
-    <t>Nc1ncnc2c1nc(N1CCOCC1)n2C1OC(CO)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000000598966</t>
-  </si>
-  <si>
-    <t>CC(=O)OCC1OC(n2ccc(=O)[nH]c2=O)C(OC(C)=O)C1OC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000005886092</t>
-  </si>
-  <si>
-    <t>O=c1[nH]cnc2c1nc(N1CCCCC1)n2C1OC(CO)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000012406604</t>
-  </si>
-  <si>
-    <t>Nc1nc2c(nc(N3CCCCC3)n2C2OC(CO)C(O)C2O)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000002151124</t>
-  </si>
-  <si>
-    <t>CN1CCN(c2nc3c(=O)[nH]cnc3n2C2OC(CO)C(O)C2O)CC1</t>
-  </si>
-  <si>
-    <t>ZINC000012318139</t>
-  </si>
-  <si>
-    <t>CC1CCN(c2nc3c(=O)[nH]cnc3n2C2OC(CO)C(O)C2O)CC1</t>
-  </si>
-  <si>
-    <t>ZINC000008636892</t>
-  </si>
-  <si>
-    <t>Nc1nc2c(nc(N3CCCC3)n2C2OC(CO)C(O)C2O)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000004095542</t>
-  </si>
-  <si>
-    <t>O=C([O-])c1cc(=O)[nH]c(=O)n1C1OC(COP(=O)([O-])[O-])C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000003794575</t>
-  </si>
-  <si>
-    <t>OCC1OC(n2cnc3c(NC4CCCC4O)ncnc32)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000002090819</t>
-  </si>
-  <si>
-    <t>Nc1nc2c(nc(N3CCOCC3)n2C2OC(CO)C(O)C2O)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000004257481</t>
-  </si>
-  <si>
-    <t>O=c1[nH]cnc2c1nc(N1CCOCC1)n2C1OC(CO)C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000220268234</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)NC1C(NC(=O)Cc2cc(=O)[nH]c(N)n2)C2CCOC21</t>
-  </si>
-  <si>
-    <t>ZINC000064857864</t>
-  </si>
-  <si>
-    <t>CC(=O)OCC1OC(n2cnc(N)nc2=O)C(OC(C)=O)C1OC(C)=O</t>
-  </si>
-  <si>
-    <t>ZINC000222939113</t>
-  </si>
-  <si>
-    <t>O=c1[nH]cc(S(=O)(=O)NC2COCCC2Oc2ccccn2)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>O=c1[nH]cc(S(=O)(=O)[N-]C2COCCC2Oc2ccccn2)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000017198126</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)Nc1nc2c(ncn2C2OC(CO)C(O)C2O)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000002571374</t>
-  </si>
-  <si>
-    <t>O=c1[nH]c(=O)c2nc(Br)n(C3OC(CO)C(O)C3O)c2[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000020592121</t>
-  </si>
-  <si>
-    <t>CC1=NN(CCN2CCOCC2)c2nc3c(c(=O)n(C)c(=O)n3C)n2C1</t>
-  </si>
-  <si>
-    <t>ZINC000092028406</t>
-  </si>
-  <si>
-    <t>COCC(=O)N1CCc2nc[nH]c2C12CCN(C(=O)Cn1cnnn1)CC2</t>
-  </si>
-  <si>
-    <t>COCC(=O)N1CCc2[nH]cnc2C12CCN(C(=O)Cn1cnnn1)CC2</t>
-  </si>
-  <si>
-    <t>ZINC000091746364</t>
-  </si>
-  <si>
-    <t>CC(O)C(N)C(=O)N1CCC2(CC1)c1nc[nH]c1CCN2S(C)(=O)=O</t>
-  </si>
-  <si>
-    <t>ZINC000009419689</t>
-  </si>
-  <si>
-    <t>Cc1cc(O)c(C2(O)C(=O)[N-]C(=O)NC2=O)c(=O)n1Cc1cccnc1</t>
-  </si>
-  <si>
-    <t>ZINC000003927870</t>
-  </si>
-  <si>
-    <t>Nc1nc(F)nc2c1ncn2C1OC(COP(=O)([O-])[O-])C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000219478939</t>
-  </si>
-  <si>
-    <t>NC(=O)COC1COCCC1NC(=O)c1ccc(S(N)(=O)=O)cc1</t>
-  </si>
-  <si>
-    <t>ZINC000003998978</t>
-  </si>
-  <si>
-    <t>CC(=O)Nc1ccc(NC(C)=O)c(NC2OC(C(O)CO)C(O)C2O)c1</t>
-  </si>
-  <si>
-    <t>ZINC000004521935</t>
-  </si>
-  <si>
-    <t>CC(=CCNc1ncnc2c1ncn2C1OC(CO)C(O)C1O)CO</t>
-  </si>
-  <si>
-    <t>ZINC000002083275</t>
-  </si>
-  <si>
-    <t>Nc1nc2c(nc(Br)n2C2OC(CO)C(O)C2O)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000077386390</t>
-  </si>
-  <si>
-    <t>COCCN1CC23C=CC(O2)C(C(=O)N2CCS(=O)(=O)CC2)C3C1=O</t>
-  </si>
-  <si>
-    <t>ZINC000035259676</t>
-  </si>
-  <si>
-    <t>O=c1cc(I)n(C2OC(CO)C(O)C2O)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000012652346</t>
-  </si>
-  <si>
-    <t>Cn1nc([O-])c(=O)nc1SCC1=C(C(=O)[O-])N2C(=O)C(N)C2SC1</t>
-  </si>
-  <si>
-    <t>Cn1nc([O-])c(=O)nc1SCC1=C(C(=O)[O-])N2C(=O)C([NH3+])C2SC1</t>
-  </si>
-  <si>
-    <t>ZINC000011835594</t>
-  </si>
-  <si>
-    <t>COCCn1c(C(=O)NCC(O)CO)cc2c(=O)n(C)c(=O)n(C)c21</t>
-  </si>
-  <si>
-    <t>ZINC000220502370</t>
-  </si>
-  <si>
-    <t>O=c1[nH]cc(S(=O)(=O)NC2CCOCC2Oc2ccccn2)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>O=c1[nH]cc(S(=O)(=O)[N-]C2CCOCC2Oc2ccccn2)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000005224737</t>
-  </si>
-  <si>
-    <t>Nc1nc2c(ncn2C2OC(CO)C(O)C2OP(=O)([O-])[O-])c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>Cn1[n-]c(=O)c(=O)nc1SCC1=C(C(=O)[O-])N2C(=O)C(N)C2SC1</t>
-  </si>
-  <si>
-    <t>Cn1[n-]c(=O)c(=O)nc1SCC1=C(C(=O)[O-])N2C(=O)C([NH3+])C2SC1</t>
-  </si>
-  <si>
-    <t>ZINC000011845431</t>
-  </si>
-  <si>
-    <t>CCCCn1c(C(=O)NCC(O)CO)cc2c(=O)n(C)c(=O)n(C)c21</t>
-  </si>
-  <si>
-    <t>ZINC000012541368</t>
-  </si>
-  <si>
-    <t>CC1CN(Cc2nc3c(c(=O)n(C)c(=O)n3C)n2CC(N)=O)CC(C)O1</t>
-  </si>
-  <si>
-    <t>ZINC000004228292</t>
-  </si>
-  <si>
-    <t>O=c1[nH]c(=O)c2ncn(C3OC(COP(=O)([O-])[O-])C(O)C3O)c2[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000091426318</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)N1CCc2[nH]cnc2C12CCN(C(=O)CNC(N)=O)CC2</t>
-  </si>
-  <si>
-    <t>CS(=O)(=O)N1CCc2nc[nH]c2C12CCN(C(=O)CNC(N)=O)CC2</t>
-  </si>
-  <si>
-    <t>ZINC000222271623</t>
-  </si>
-  <si>
-    <t>NC(=O)COC1CCOCC1NC(=O)c1cnc2c(O)cccn2c1=O</t>
-  </si>
-  <si>
-    <t>ZINC000084575081</t>
-  </si>
-  <si>
-    <t>CC(C)CC(NS(=O)(=O)c1cc(C(N)=O)n(C)c1)C(=O)NCCO</t>
-  </si>
-  <si>
-    <t>ZINC000004807333</t>
-  </si>
-  <si>
-    <t>Nc1nc2c(ncn2C2OC(CO)C(OP(=O)([O-])[O-])C2O)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000012806495</t>
-  </si>
-  <si>
-    <t>CCCn1c(N)c(C(=O)CN(C)C2CCS(=O)(=O)C2)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>ZINC000022022860</t>
-  </si>
-  <si>
-    <t>CCN(CC)S(=O)(=O)c1c(N)[nH]c2c(c1=O)c(=O)n(C)c(=O)n2C</t>
-  </si>
-  <si>
-    <t>ZINC000013522378</t>
-  </si>
-  <si>
-    <t>Nc1ncnc2c1ncn2C1OC(CSCC([NH3+])C(=O)[O-])C(O)C1O</t>
-  </si>
-  <si>
-    <t>ZINC000001406378</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2nc(N3CCN(C(=O)C4CCCO4)CC3)[nH]c2n(C)c1=O</t>
-  </si>
-  <si>
-    <t>ZINC000012921696</t>
-  </si>
-  <si>
-    <t>Cn1c(N)c(C(=O)Cn2nnn(-c3ccccc3)c2=O)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>ZINC000002159505</t>
-  </si>
-  <si>
-    <t>Nc1nc2c(ncn2C2OC(COP(=O)([O-])[O-])C(O)C2O)c(=O)[nH]1</t>
-  </si>
-  <si>
-    <t>ZINC000223305997</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)[nH]c2ccc(S(=O)(=O)NC3CCOCC3O)cc2c1=O</t>
-  </si>
-  <si>
-    <t>ZINC000020291331</t>
-  </si>
-  <si>
-    <t>Cn1c(=O)c2c(nc(CN3CCOCC3)n2CC(O)CO)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>ZINC000095509243</t>
-  </si>
-  <si>
-    <t>Cc1nc2n(c1C(=O)N(C)C)CCN(C(=O)c1cc(=O)n(C)c(=O)n1C)C2</t>
-  </si>
-  <si>
-    <t>ZINC000069198869</t>
-  </si>
-  <si>
-    <t>Cn1c(N)c(C(=O)CN2CCC(C3OCCO3)CC2)c(=O)n(C)c1=O</t>
-  </si>
-  <si>
-    <t>ZINC000220204578</t>
-  </si>
-  <si>
-    <t>O=c1[nH]cc(S(=O)(=O)N2CCn3nc(C(O)C4CC4)cc3C2)c(=O)[nH]1</t>
+    <t>ZINC000068604261</t>
+  </si>
+  <si>
+    <t>O=C([O-])CN1CCC[NH+](CC(=O)[O-])CCN(CC(=O)[O-])CCC[NH2+]CC1</t>
+  </si>
+  <si>
+    <t>ZINC000003895812</t>
+  </si>
+  <si>
+    <t>OCCN1CCOCCOCCN(CCO)CCOCCOCC1</t>
+  </si>
+  <si>
+    <t>ZINC000004545903</t>
+  </si>
+  <si>
+    <t>[NH3+]CC(=O)NCC(=O)NCC(=O)NCC(=O)NCC(=O)NCC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>NCC(=O)NCC(=O)NCC(=O)NCC(=O)NCC(=O)NCC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000003896107</t>
+  </si>
+  <si>
+    <t>OCCN1CCOCCOCCOCCN(CCO)CCOCC1</t>
+  </si>
+  <si>
+    <t>ZINC000019370490</t>
+  </si>
+  <si>
+    <t>O=S(=O)([O-])CC(O)CN1CCN(CC(O)CS(=O)(=O)[O-])CC1</t>
+  </si>
+  <si>
+    <t>O=S(=O)([O-])CC(O)CN1CC[NH+](CC(O)CS(=O)(=O)[O-])CC1</t>
+  </si>
+  <si>
+    <t>ZINC000048524539</t>
+  </si>
+  <si>
+    <t>COC(=O)NC(=S)NN1CCN(NC(=S)NC(=O)OC)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000075279647</t>
+  </si>
+  <si>
+    <t>CCCNC(=O)C(C)NC(=O)C(C)NC(=O)C(C)NC(=O)CCC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000100655941</t>
+  </si>
+  <si>
+    <t>CC([NH3+])C(=O)NC(C)C(=O)NC(C)C(=O)NC(C)C(=O)NC(C)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000026669215</t>
+  </si>
+  <si>
+    <t>CCNC(=O)NC(=O)CN1CCN(CC(=O)NC(=O)NCC)C(C)C1</t>
+  </si>
+  <si>
+    <t>ZINC000002387138</t>
+  </si>
+  <si>
+    <t>O=C1C=CC(=O)N1CCOCCOCCOCCN1C(=O)C=CC1=O</t>
+  </si>
+  <si>
+    <t>ZINC000079103741</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)C1CN(CC(=O)NC2CC2)CCN1CC(=O)NC1CC1</t>
+  </si>
+  <si>
+    <t>ZINC000095753544</t>
+  </si>
+  <si>
+    <t>CC(=O)OCN(CN(CN(COC(C)=O)[N+](=O)[O-])[N+](=O)[O-])[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000003787786</t>
+  </si>
+  <si>
+    <t>CCNC(=O)C(C)NC(=O)C(C)NC(=O)C(C)NC(=O)CCCC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000004948072</t>
+  </si>
+  <si>
+    <t>COC(=O)C(CO)(CCC(CO)(C(=O)OC)C(=O)OC)C(=O)OC</t>
+  </si>
+  <si>
+    <t>ZINC000004761071</t>
+  </si>
+  <si>
+    <t>COC(=O)C(C)NC(=O)C(C)NC(=O)C(C)NC(=O)C(C)NC(C)=O</t>
+  </si>
+  <si>
+    <t>ZINC000002973678</t>
+  </si>
+  <si>
+    <t>CC(NC(=O)C(N)Cc1ccc(O)cc1)C(=O)NCC(=O)NCC(N)=O</t>
+  </si>
+  <si>
+    <t>ZINC000008934842</t>
+  </si>
+  <si>
+    <t>CN1C(=O)N(C)C(NC(=O)N2CCOCC2)C1NC(=O)N1CCOCC1</t>
+  </si>
+  <si>
+    <t>ZINC000096126356</t>
+  </si>
+  <si>
+    <t>CCNC(=O)NC(=O)C(C)N1CCN(CC(=O)NCCCOC)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000019831483</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)N1CCN(CCNC(=O)C(=O)NCc2ccccc2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000002477828</t>
+  </si>
+  <si>
+    <t>O=C(CCC(=O)NC1CCS(=O)(=O)C1)NC1CCS(=O)(=O)C1</t>
+  </si>
+  <si>
+    <t>ZINC000012403763</t>
+  </si>
+  <si>
+    <t>COC(=O)CC(NCCCNC(CC(=O)OC)C(=O)OC)C(=O)OC</t>
+  </si>
+  <si>
+    <t>ZINC000019848783</t>
+  </si>
+  <si>
+    <t>O=C1OCCN1CCN(CN1C(=O)CCC1=O)CN1C(=O)CCC1=O</t>
+  </si>
+  <si>
+    <t>ZINC000047913254</t>
+  </si>
+  <si>
+    <t>CCOC(=O)N(C)CC(=O)N1CCN(C(=O)C(=O)N2CCOCC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000006095847</t>
+  </si>
+  <si>
+    <t>O=C([O-])CNC(=O)CNC(=O)CNC(=O)CSC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>ZINC000075284462</t>
+  </si>
+  <si>
+    <t>CCOC=C(C(=O)NN1CCN(C)CC1)C(=O)NN1CCN(C)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000008934835</t>
+  </si>
+  <si>
+    <t>CN1C(=O)N(C)C(NC(=O)NC(C)(C)CO)C1NC(=O)NC(C)(C)CO</t>
+  </si>
+  <si>
+    <t>ZINC000048301283</t>
+  </si>
+  <si>
+    <t>CCN1CCN(C(=O)C(C)N2CCN(S(=O)(=O)N(C)C)CC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000002228293</t>
+  </si>
+  <si>
+    <t>O=C([O-])CCN1CN2C(=O)N3CN(CCC(=O)[O-])CN4C(=O)N(C1)C2C34</t>
+  </si>
+  <si>
+    <t>ZINC000035552524</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)N(CCCN1CCOCC1)CCC(=O)N1CCNCC1</t>
+  </si>
+  <si>
+    <t>ZINC000020500135</t>
+  </si>
+  <si>
+    <t>CN1CCN(C(=O)CNC(=O)CNS(=O)(=O)c2ccccc2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000072406229</t>
+  </si>
+  <si>
+    <t>O=CN1CCN(CC(O)CN2CCN(C3CCS(=O)(=O)C3)CC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000048547150</t>
+  </si>
+  <si>
+    <t>CC([NH3+])C(=O)NC(CCC(=O)[O-])C(=O)NC(C)C(=O)NC(C)C(N)=O</t>
+  </si>
+  <si>
+    <t>ZINC000217513646</t>
+  </si>
+  <si>
+    <t>O=C([O-])CCC(NC(=O)CC(=O)NC(CCC(=O)[O-])C(=O)[O-])C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000012343560</t>
+  </si>
+  <si>
+    <t>O=S(=O)(N1CCCC1)N1CCN(S(=O)(=O)N2CCOCC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000025319466</t>
+  </si>
+  <si>
+    <t>CC(C(=O)NC(=O)NC1CC1)N1CCN(C(=O)CN2CCOCC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000012427704</t>
+  </si>
+  <si>
+    <t>Cc1nnc(SCc2nnc(CSc3nnc(C)n3N)n2N)n1N</t>
+  </si>
+  <si>
+    <t>ZINC000013562447</t>
+  </si>
+  <si>
+    <t>CCN(CC(O)C[NH+](C)CC(O)CN1CCOCC1)S(=O)(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000044226499</t>
+  </si>
+  <si>
+    <t>Cn1nnnc1SCC(=O)NCCN1CCN(S(C)(=O)=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000003628982</t>
+  </si>
+  <si>
+    <t>CCS(=O)(=O)c1nnnn1CCn1nnnc1S(=O)(=O)CC</t>
+  </si>
+  <si>
+    <t>ZINC000004530520</t>
+  </si>
+  <si>
+    <t>COC(=O)C1C(=O)C(C(=O)OC)C2C(C(=O)OC)C(=O)C(C(=O)OC)C12</t>
+  </si>
+  <si>
+    <t>ZINC000002803302</t>
+  </si>
+  <si>
+    <t>Cn1cc(S(=O)(=O)N2CCN(S(=O)(=O)c3cnn(C)c3)CC2)cn1</t>
+  </si>
+  <si>
+    <t>ZINC000095359258</t>
+  </si>
+  <si>
+    <t>NS(=O)(=O)N1CCN(C(=O)CN2CCN(c3ncccn3)CC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000002934648</t>
+  </si>
+  <si>
+    <t>O=C([O-])CCn1c(=O)c2cc3c(=O)n(CCC(=O)[O-])c(=O)c3cc2c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000020219124</t>
+  </si>
+  <si>
+    <t>COC(=O)CC(C(=O)OC)N1CCN(C(CC(=O)OC)C(=O)OC)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000047913255</t>
+  </si>
+  <si>
+    <t>CC(C(=O)N1CCN(C(=O)C(=O)N2CCOCC2)CC1)S(C)(=O)=O</t>
+  </si>
+  <si>
+    <t>ZINC000020812972</t>
+  </si>
+  <si>
+    <t>O=S1(=O)CC(O)C(N2CCN(C3CS(=O)(=O)CC3O)CC2)C1</t>
+  </si>
+  <si>
+    <t>ZINC000048547152</t>
+  </si>
+  <si>
+    <t>CC([NH3+])C(=O)NC(CCC(=O)[O-])C(=O)NC(C)C(=O)NC(C)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000052144646</t>
+  </si>
+  <si>
+    <t>CCN(CC)C(=O)CNC(=O)NCCS(=O)(=O)N1CCOCC1</t>
+  </si>
+  <si>
+    <t>ZINC000002371971</t>
+  </si>
+  <si>
+    <t>NS(=O)(=O)c1ccc(NC(=O)CCC(=O)N(CCO)CCO)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000016226135</t>
+  </si>
+  <si>
+    <t>O=C(CN1CCOCC1)Nc1nonc1NC(=O)CN1CCOCC1</t>
+  </si>
+  <si>
+    <t>ZINC000002995964</t>
+  </si>
+  <si>
+    <t>CC(CO)(CO)NC(=O)C(F)(F)C(F)(F)C(=O)NC(C)(CO)CO</t>
+  </si>
+  <si>
+    <t>ZINC000003257233</t>
+  </si>
+  <si>
+    <t>CN(C(=O)C(=O)N(C)C1CCS(=O)(=O)C1)C1CCS(=O)(=O)C1</t>
+  </si>
+  <si>
+    <t>ZINC000012360723</t>
+  </si>
+  <si>
+    <t>Nn1c(Cn2c[n+]([N-][N+](=O)[O-])cn2)nnc1Cn1c[n+]([N-][N+](=O)[O-])cn1</t>
+  </si>
+  <si>
+    <t>ZINC000052141092</t>
+  </si>
+  <si>
+    <t>CC(C)(C)NC(=O)CNC(=O)NCCS(=O)(=O)N1CCOCC1</t>
+  </si>
+  <si>
+    <t>ZINC000003245159</t>
+  </si>
+  <si>
+    <t>CC1(NC(=O)C(=O)NC2(C)CCS(=O)(=O)C2)CCS(=O)(=O)C1</t>
+  </si>
+  <si>
+    <t>ZINC000040108105</t>
+  </si>
+  <si>
+    <t>CN1CCN(C(=O)C2CCN(C(=O)CN3C(=O)CNC3=O)CC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000095466546</t>
+  </si>
+  <si>
+    <t>Cn1cnn(CC(=O)OCCCOC(=O)Cn2ncn(C)c2=O)c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000048286357</t>
+  </si>
+  <si>
+    <t>Cn1cc(S(=O)(=O)NCCN2CCN(S(C)(=O)=O)CC2)cn1</t>
+  </si>
+  <si>
+    <t>ZINC000085436412</t>
+  </si>
+  <si>
+    <t>Cn1nnnc1SCC(=O)N1CCN(CCn2ncccc2=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000013522657</t>
+  </si>
+  <si>
+    <t>CNC(=S)NN=c1nc(N2CCOCC2)nc(N2CCOCC2)[nH]1</t>
+  </si>
+  <si>
+    <t>ZINC000009691098</t>
+  </si>
+  <si>
+    <t>O=C(CNC(=O)C(=O)NCCc1cccs1)NC1CCS(=O)(=O)C1</t>
+  </si>
+  <si>
+    <t>ZINC000330730473</t>
+  </si>
+  <si>
+    <t>CN(C)CC(=O)N1CCN(S(=O)(=O)CCCN2CCOCC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000071281814</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)CN1CCN(CC(O)CN2C(=O)NC(C)(C)C2=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000077407180</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)CN1CCN(CCN2CCCC2=O)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000058182634</t>
+  </si>
+  <si>
+    <t>COCCN(CC(N)=O)S(=O)(=O)c1ccc(S(N)(=O)=O)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000022924003</t>
+  </si>
+  <si>
+    <t>CN(C)N1C(=O)CC(N2CCN(C3CC(=O)N(N(C)C)C3=O)CC2)C1=O</t>
+  </si>
+  <si>
+    <t>ZINC000004899524</t>
+  </si>
+  <si>
+    <t>NC(=O)C1CCCN1C(=O)C(CCC(=O)[O-])NC(=O)C1CCC(=O)N1</t>
+  </si>
+  <si>
+    <t>ZINC000041107840</t>
+  </si>
+  <si>
+    <t>CC(=O)Nc1ccc(CNC(=O)Cn2c(=O)n(C)c(=O)n(C)c2=O)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000058169116</t>
+  </si>
+  <si>
+    <t>CN(C)c1nc(N)nc(CN2CCN(S(=O)(=O)N3CCCC3)CC2)n1</t>
+  </si>
+  <si>
+    <t>ZINC000036709109</t>
+  </si>
+  <si>
+    <t>COCCNC(=O)NCCS(=O)(=O)N1CCN(c2ncccn2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000071283041</t>
+  </si>
+  <si>
+    <t>CN1CCN(C(=O)CN(C)CC(O)CN2C(=O)NC(C)(C)C2=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000052996931</t>
+  </si>
+  <si>
+    <t>O=C(CNC(=O)c1ccccc1)NCC(=O)NC1CCS(=O)(=O)C1</t>
+  </si>
+  <si>
+    <t>ZINC000091288550</t>
+  </si>
+  <si>
+    <t>Cn1nnnc1SCCNC(=O)c1cnc(Cn2cncn2)[nH]c1=O</t>
+  </si>
+  <si>
+    <t>Cn1nnnc1SCCNC(=O)c1cnc(Cn2cncn2)[n-]c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000009882564</t>
+  </si>
+  <si>
+    <t>Nc1nc(N)nc(SCC(=O)NC(=O)NC2CCS(=O)(=O)C2)n1</t>
+  </si>
+  <si>
+    <t>ZINC000091848944</t>
+  </si>
+  <si>
+    <t>Cc1cc(=O)[nH]c(CCNC(=O)c2cnc(Cn3cncn3)[nH]c2=O)n1</t>
+  </si>
+  <si>
+    <t>Cc1cc(=O)[nH]c(CCNC(=O)c2cnc(Cn3cncn3)[n-]c2=O)n1</t>
+  </si>
+  <si>
+    <t>ZINC000072168024</t>
+  </si>
+  <si>
+    <t>Cc1ccc(CN2CCNC(=O)C2CC(=O)NC(CO)(CO)CO)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000072146688</t>
+  </si>
+  <si>
+    <t>COc1cc(CN2CCNC(=O)C2CC(=O)NCC(N)=O)cc(OC)c1</t>
+  </si>
+  <si>
+    <t>ZINC000082108244</t>
+  </si>
+  <si>
+    <t>CN(C)CC(=O)N1CCN(CCN2CCCC2=O)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000058299268</t>
+  </si>
+  <si>
+    <t>COC(=O)Cc1nnn(CC(=O)Nc2ccc(S(N)(=O)=O)cc2)n1</t>
+  </si>
+  <si>
+    <t>ZINC000096167235</t>
+  </si>
+  <si>
+    <t>CCNC(=O)CN1CCN(c2nccc(N(C)CC(O)CO)n2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000041107839</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)n(C)c(=O)n(Cc2nc(N)nc(N3CCOCC3)n2)c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000001616624</t>
+  </si>
+  <si>
+    <t>[NH3+]C(CCC(=O)NC(CS(=O)(=O)[O-])C(=O)NCC(=O)[O-])C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000014121131</t>
+  </si>
+  <si>
+    <t>CC(C(=O)NC1CCS(=O)(=O)C1)N1CCN(S(C)(=O)=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000032770131</t>
+  </si>
+  <si>
+    <t>O=C(CN1CCN(S(=O)(=O)N2CCOCC2)CC1)N1CCNC1=O</t>
+  </si>
+  <si>
+    <t>ZINC000040156596</t>
+  </si>
+  <si>
+    <t>Nc1[nH]c(=O)[nH]c(=O)c1C(c1ccc(F)cc1)c1c(N)[nH]c(=O)[nH]c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000011905149</t>
+  </si>
+  <si>
+    <t>NS(=O)(=O)c1ccc(CNC(=O)CCn2ccc(=O)[nH]c2=O)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000071279159</t>
+  </si>
+  <si>
+    <t>COCCNC(=O)CN1CCN(Cc2oc(CO)cc(=O)c2O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000065370045</t>
+  </si>
+  <si>
+    <t>Cc1nc(=O)[nH]c(C)c1CCC(=O)N1CCN2C(=O)CN(C)C(=O)C2C1</t>
+  </si>
+  <si>
+    <t>ZINC000072149019</t>
+  </si>
+  <si>
+    <t>O=C(CC1C(=O)NCCN1Cc1ccc(F)cc1)NC(CO)(CO)CO</t>
+  </si>
+  <si>
+    <t>ZINC000011905150</t>
+  </si>
+  <si>
+    <t>NS(=O)(=O)c1ccc(CCNC(=O)CCn2ccc(=O)[nH]c2=O)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000091829359</t>
+  </si>
+  <si>
+    <t>O=C(CN1C(=O)CNC1=O)N1CC(CO)CC(CN2CCOCC2)C1</t>
+  </si>
+  <si>
+    <t>ZINC000077470607</t>
+  </si>
+  <si>
+    <t>CCN1CCN(C(=O)CCCS(N)(=O)=O)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000001532061</t>
+  </si>
+  <si>
+    <t>COc1cc(OC)nc(NC(=O)[N-]S(=O)(=O)N(C)S(C)(=O)=O)n1</t>
+  </si>
+  <si>
+    <t>ZINC000072162374</t>
+  </si>
+  <si>
+    <t>Cc1ccccc1CN1CCNC(=O)C1CC(=O)NC(CO)(CO)CO</t>
+  </si>
+  <si>
+    <t>ZINC000004551919</t>
+  </si>
+  <si>
+    <t>CC(=O)OC1C(OC(C)=O)N(C=O)C(OC(C)=O)C(OC(C)=O)N1C=O</t>
+  </si>
+  <si>
+    <t>ZINC000077489159</t>
+  </si>
+  <si>
+    <t>Cn1ncc(N2CCC(CNC(=O)CCNS(C)(=O)=O)C2)cc1=O</t>
+  </si>
+  <si>
+    <t>ZINC000072169123</t>
+  </si>
+  <si>
+    <t>COc1cccc(CN2CCNC(=O)C2CC(=O)NC(CO)CO)c1</t>
+  </si>
+  <si>
+    <t>ZINC000152017634</t>
+  </si>
+  <si>
+    <t>Cn1cc(I)c(=O)n(CCC(=O)NC(N)=O)c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000077505469</t>
+  </si>
+  <si>
+    <t>Cn1ncc(N2CCC(CNC(=O)CCCS(N)(=O)=O)C2)cc1=O</t>
+  </si>
+  <si>
+    <t>ZINC000065404341</t>
+  </si>
+  <si>
+    <t>O=C1NCCN2CCN(C(=O)CNS(=O)(=O)c3cccs3)CC12</t>
+  </si>
+  <si>
+    <t>ZINC000138720583</t>
+  </si>
+  <si>
+    <t>O=C1C2C3C=CC(C2C(=O)N1CCO)C1C2C(=O)N(CCO)C(=O)C2C31</t>
+  </si>
+  <si>
+    <t>ZINC000072163436</t>
+  </si>
+  <si>
+    <t>Cc1ccc(CN2CCNC(=O)C2CC(=O)NC(CO)(CO)CO)o1</t>
+  </si>
+  <si>
+    <t>ZINC000091915017</t>
+  </si>
+  <si>
+    <t>Cn1ncc(N2CCN(C(=O)C3CCCN(CC(N)=O)C3)CC2)cc1=O</t>
+  </si>
+  <si>
+    <t>ZINC000015109142</t>
+  </si>
+  <si>
+    <t>COc1ccc(OC)c(NC(=O)Cn2c(=O)n(C)c(=O)n(C)c2=O)c1</t>
+  </si>
+  <si>
+    <t>ZINC000051502340</t>
+  </si>
+  <si>
+    <t>O=C(C1CCS(=O)(=O)C1)N1CCN(CC(O)Cn2cccn2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000072143133</t>
+  </si>
+  <si>
+    <t>O=C(CC1C(=O)NCCN1Cc1ccccc1F)NC(CO)(CO)CO</t>
+  </si>
+  <si>
+    <t>ZINC000003118078</t>
+  </si>
+  <si>
+    <t>NS(=O)(=O)c1ccc(NC(=O)COC(=O)CN2C(=O)CCC2=O)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000091663663</t>
+  </si>
+  <si>
+    <t>CC(=O)NC(Cc1cnc[nH]1)C(=O)N1CCN(CCn2cncn2)CC1</t>
+  </si>
+  <si>
+    <t>CC(=O)NC(Cc1c[nH]cn1)C(=O)N1CCN(CCn2cncn2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000072153251</t>
+  </si>
+  <si>
+    <t>COc1ccc(CN2CCNC(=O)C2CC(=O)NCC(N)=O)c(OC)c1</t>
+  </si>
+  <si>
+    <t>ZINC000072405718</t>
+  </si>
+  <si>
+    <t>O=C(NCC(=O)N1CCN(C2CCS(=O)(=O)C2)CC1)c1cnccn1</t>
+  </si>
+  <si>
+    <t>ZINC000012360721</t>
+  </si>
+  <si>
+    <t>O=C(CCn1cncn1)N1CCN(S(=O)(=O)N2CCOCC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000048310494</t>
+  </si>
+  <si>
+    <t>CCS(=O)(=O)N1CCN(S(=O)(=O)C2CCS(=O)(=O)C2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000091391068</t>
+  </si>
+  <si>
+    <t>O=C(NCc1n[nH]c(=O)[n-]1)C1CCC(=O)N(CCCN2CCOCC2)C1</t>
+  </si>
+  <si>
+    <t>O=C(NCc1n[nH]c(=O)[n-]1)C1CCC(=O)N(CCC[NH+]2CCOCC2)C1</t>
+  </si>
+  <si>
+    <t>ZINC000011905809</t>
+  </si>
+  <si>
+    <t>NS(=O)(=O)c1ccc(NC(=O)CSc2n[nH]c(=O)[n-]c2=O)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000048299321</t>
+  </si>
+  <si>
+    <t>O=C(Cn1ccc(=O)[nH]c1=O)N1CCN(S(=O)(=O)N2CCCC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000025496091</t>
+  </si>
+  <si>
+    <t>CN(C)c1nc(N2CCOCC2)nc(-n2cnc(SCC(N)=O)n2)n1</t>
+  </si>
+  <si>
+    <t>ZINC000025496034</t>
+  </si>
+  <si>
+    <t>CNc1nc(N2CCOCC2)nc(-n2cnc(SCC(N)=O)n2)n1</t>
+  </si>
+  <si>
+    <t>ZINC000095383612</t>
+  </si>
+  <si>
+    <t>O=C1CCCN1CCCC(=O)N1CCN(CCO)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000012687369</t>
+  </si>
+  <si>
+    <t>Nc1cc(=O)[n-]c(SCC(=O)NC(=O)NC2CCS(=O)(=O)C2)n1</t>
+  </si>
+  <si>
+    <t>Nc1cc(=O)[nH]c(SCC(=O)NC(=O)NC2CCS(=O)(=O)C2)n1</t>
+  </si>
+  <si>
+    <t>ZINC000091321104</t>
+  </si>
+  <si>
+    <t>O=C(NCc1n[nH]c(=O)[n-]1)C1CCC(=O)N(CCN2CCOCC2)C1</t>
+  </si>
+  <si>
+    <t>ZINC000002898447</t>
+  </si>
+  <si>
+    <t>Cc1[nH]c(=O)[nH]c(=O)c1S(=O)(=O)[N-]c1ccc(S(N)(=O)=O)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000072146965</t>
+  </si>
+  <si>
+    <t>COc1ccccc1CN1CCNC(=O)C1CC(=O)NC(CO)CO</t>
+  </si>
+  <si>
+    <t>ZINC000091755357</t>
+  </si>
+  <si>
+    <t>COCCN1CCN(C(=O)N2CCN(C)CC2)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000082156208</t>
+  </si>
+  <si>
+    <t>O=C1CC2(CCN(C(=O)CN3CCN(c4ncccn4)CC3)C2)C(=O)N1</t>
+  </si>
+  <si>
+    <t>ZINC000095495908</t>
+  </si>
+  <si>
+    <t>CC(C)(C)OC(=O)NC(CCC(N)=O)C(=O)NC(CCC(N)=O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000020768575</t>
+  </si>
+  <si>
+    <t>O=C(CNC(=O)Cn1cnc2ccccc2c1=O)NCCN1CCOCC1</t>
+  </si>
+  <si>
+    <t>ZINC000072169365</t>
+  </si>
+  <si>
+    <t>O=C(CC1C(=O)NCCN1Cc1cccs1)NC(CO)(CO)CO</t>
+  </si>
+  <si>
+    <t>ZINC000067805379</t>
+  </si>
+  <si>
+    <t>COCCN1CCCC(O)(CN2CCN(S(N)(=O)=O)CC2)C1=O</t>
+  </si>
+  <si>
+    <t>ZINC000036820994</t>
+  </si>
+  <si>
+    <t>Cc1[nH]c(=O)[nH]c(=O)c1CCC(=O)N1CCN(S(=O)(=O)N(C)C)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000022835613</t>
+  </si>
+  <si>
+    <t>CC(C)CNC(=O)CN1CCN(Cc2cc(=O)n(C)c(=O)n2C)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000005349782</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CNC(=O)CNC(=O)CCCCc1c([O-])nc(N)[nH]c1=O</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CNC(=O)CNC(=O)CCCCc1c(O)nc(N)[nH]c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000091656321</t>
+  </si>
+  <si>
+    <t>O=C(Cc1c[nH]c(=O)[nH]c1=O)N1CC(CO)C(CN2CCOCC2)C1</t>
+  </si>
+  <si>
+    <t>ZINC000092022362</t>
+  </si>
+  <si>
+    <t>CN1CCN(C(=O)N2CCN(CCC(=O)[O-])C3CS(=O)(=O)CC32)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000082157628</t>
+  </si>
+  <si>
+    <t>CCOCCC(=O)N1CCN(C(=O)CN(C)C)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000077503876</t>
+  </si>
+  <si>
+    <t>CCN1CCN(C(=O)CCNS(C)(=O)=O)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000072167254</t>
+  </si>
+  <si>
+    <t>COc1cccc(CN2CCNC(=O)C2CC(=O)NCC(N)=O)c1OC</t>
+  </si>
+  <si>
+    <t>ZINC000091965612</t>
+  </si>
+  <si>
+    <t>CN1CCN(C(=O)Cn2nccn2)CC12CCC(=O)N(CCO)CC2</t>
+  </si>
+  <si>
+    <t>ZINC000014201810</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)N1CCN(C(=O)Cn2[nH]c(=O)c3ccccc3c2=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000082096457</t>
+  </si>
+  <si>
+    <t>COCCN1CCN(C(=O)CCN2CCCC2=O)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000077537948</t>
+  </si>
+  <si>
+    <t>O=C1CCC2(CCCN(C(=O)Cc3c[nH]c(=O)[nH]c3=O)C2)CN1CCO</t>
+  </si>
+  <si>
+    <t>ZINC000091769321</t>
+  </si>
+  <si>
+    <t>COCCN1CCN(C(=O)CNC(=O)N(C)C)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000952987906</t>
+  </si>
+  <si>
+    <t>Cc1ccc(S(=O)(=O)N2CCN(C(=O)Cn3[n-]nnc3=N)CC2)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000585138604</t>
+  </si>
+  <si>
+    <t>CS(C)(=O)=NS(=O)(=O)N1CCN(C(=O)C2(C(=O)[O-])CC2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000091645811</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)CCN1CC(NC(=O)CCn2cnnn2)C(C2CC2)C1</t>
+  </si>
+  <si>
+    <t>ZINC000082170999</t>
+  </si>
+  <si>
+    <t>CCCOCC(=O)N1CCN(C(=O)CN(C)C)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000020664270</t>
+  </si>
+  <si>
+    <t>O=c1[nH]c2ccc(S(=O)(=O)NCCN3CCOCC3)cc2[nH]c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000077470731</t>
+  </si>
+  <si>
+    <t>CN1CC(=O)N(CC(=O)NCC2CCN(c3cnn(C)c(=O)c3)C2)C1=O</t>
+  </si>
+  <si>
+    <t>ZINC000077470134</t>
+  </si>
+  <si>
+    <t>CCOCCC(=O)N1CCN(CC(=O)N(C)C)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000095370688</t>
+  </si>
+  <si>
+    <t>O=C1CCCCCN1CC(=O)N1CCN(CCO)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000009224923</t>
+  </si>
+  <si>
+    <t>CCCNC(=O)Cn1cc(S(=O)(=O)NC)c(S(=O)(=O)NC)c1</t>
+  </si>
+  <si>
+    <t>ZINC000070809053</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)N1CCN(C(=O)C2CN(C(=O)c3cnccn3)C2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000244875028</t>
+  </si>
+  <si>
+    <t>Cc1nc(NC(=O)CN2CCN(S(N)(=O)=O)CC2)sc1C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>ZINC000022357535</t>
+  </si>
+  <si>
+    <t>Cn1c(CN2CCN(CC(=O)N3CCOCC3)CC2)cc(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000065488057</t>
+  </si>
+  <si>
+    <t>COC(=O)c1ccc(CNC(=O)CN2CCNC3CS(=O)(=O)CC32)o1</t>
+  </si>
+  <si>
+    <t>ZINC000082146396</t>
+  </si>
+  <si>
+    <t>CN(C)CC(=O)N1CCN(C(=O)N2CCOCC2)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000082114813</t>
+  </si>
+  <si>
+    <t>CC(C)OCC(=O)N1CCN(C(=O)CN(C)C)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000101703961</t>
+  </si>
+  <si>
+    <t>CC(=O)N1CCN(c2c(NCC(O)CN3CCOCC3)c(=O)c2=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000019840562</t>
+  </si>
+  <si>
+    <t>CCS(=O)(=O)N1CCN(C(=O)Cn2ncc(N(C)C)cc2=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000096025192</t>
+  </si>
+  <si>
+    <t>Cn1nnnc1SCC(=O)NCCn1nc(-n2cncn2)ccc1=O</t>
+  </si>
+  <si>
+    <t>ZINC000065407173</t>
+  </si>
+  <si>
+    <t>O=C1NCC(=O)N2CCN(C(=O)Cn3nnc(-c4ccccc4)n3)CC12</t>
+  </si>
+  <si>
+    <t>ZINC000017201003</t>
+  </si>
+  <si>
+    <t>O=C(NCCN1CCOCC1)C(=O)NCc1n[nH]c(=O)c2ccccc12</t>
+  </si>
+  <si>
+    <t>ZINC000072157739</t>
+  </si>
+  <si>
+    <t>O=C(CC1C(=O)NCCN1Cc1ccccn1)NCCc1n[nH]c(=O)[n-]1</t>
+  </si>
+  <si>
+    <t>ZINC000004096261</t>
+  </si>
+  <si>
+    <t>NC(=O)C1CCCN1C(=O)C(Cc1c[nH]cn1)NC(=O)C1CCC(=O)N1</t>
+  </si>
+  <si>
+    <t>NC(=O)C1CCCN1C(=O)C(Cc1cnc[nH]1)NC(=O)C1CCC(=O)N1</t>
+  </si>
+  <si>
+    <t>ZINC000072161635</t>
+  </si>
+  <si>
+    <t>Cn1ncc(N2CCC(CNC(=O)CC3NC(=O)NC3=O)CC2)cc1=O</t>
+  </si>
+  <si>
+    <t>ZINC000013132014</t>
+  </si>
+  <si>
+    <t>COCCNC(=O)NC(=O)COC(=O)CN1C(=O)C2CC=CCC2C1=O</t>
+  </si>
+  <si>
+    <t>ZINC000091793708</t>
+  </si>
+  <si>
+    <t>CN1CCN(C(=O)Cn2cnnc2)CC12CCC(=O)N(CCO)CC2</t>
+  </si>
+  <si>
+    <t>ZINC000077357766</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)CN1CCN(Cc2nccn2C)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000092081593</t>
+  </si>
+  <si>
+    <t>O=C(c1c[nH]c(=O)[nH]c1=O)N1CC(CO)CC(CN2CCOCC2)C1</t>
+  </si>
+  <si>
+    <t>ZINC000019323147</t>
+  </si>
+  <si>
+    <t>CC(C)C12CN3CC(C(C)C)(CN(C1)C3C(O)C(O)C(O)CO)C2=O</t>
+  </si>
+  <si>
+    <t>ZINC000072411335</t>
+  </si>
+  <si>
+    <t>CCC(=O)N1CCN(C(=O)CCn2cncn2)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000091574424</t>
+  </si>
+  <si>
+    <t>O=C([O-])CCN1CCN(C(=O)N2CCOCC2)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000077341039</t>
+  </si>
+  <si>
+    <t>CCCOCC(=O)N1CCN(CC(=O)N(C)C)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000075162981</t>
+  </si>
+  <si>
+    <t>Cn1nnnc1SCC(=O)NCCn1nc(-n2cccn2)ccc1=O</t>
+  </si>
+  <si>
+    <t>ZINC000092107202</t>
+  </si>
+  <si>
+    <t>Cc1ccc(=O)n(CC(=O)N2CC(CO)C(CN3CCOCC3)C2)n1</t>
+  </si>
+  <si>
+    <t>ZINC000107943107</t>
+  </si>
+  <si>
+    <t>Cn1c(=O)[nH]c(=O)c2nc(Sc3nc4c(=O)[nH]c(=O)n(C)c4[nH]3)[nH]c21</t>
+  </si>
+  <si>
+    <t>ZINC000053315984</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)N1CCN(C(=O)c2ccc3[nH]c(=O)c(=O)[nH]c3c2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000077342903</t>
+  </si>
+  <si>
+    <t>CC(C)OCC(=O)N1CCN(CC(=O)N(C)C)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000077355510</t>
+  </si>
+  <si>
+    <t>Cc1nc(CN2CCN(CC(=O)N(C)C)C3CS(=O)(=O)CC32)no1</t>
+  </si>
+  <si>
+    <t>ZINC000022239180</t>
+  </si>
+  <si>
+    <t>COc1cc(=O)[nH]c(=O)n1CC(=O)Nc1ccc(S(N)(=O)=O)cc1</t>
+  </si>
+  <si>
+    <t>ZINC000219583956</t>
+  </si>
+  <si>
+    <t>CN1CCN(C(=O)Cn2ncnn2)CC12CCC(=O)N(CCO)CC2</t>
+  </si>
+  <si>
+    <t>ZINC000077378367</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)CN1CCN(C(=O)C2(C)COC2)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000009224905</t>
+  </si>
+  <si>
+    <t>CNS(=O)(=O)c1cn(CC(=O)N2CCCC2)cc1S(=O)(=O)NC</t>
+  </si>
+  <si>
+    <t>ZINC000216465221</t>
+  </si>
+  <si>
+    <t>COc1ccnc(N2CCN(C(=O)Cc3c[nH]c(=O)n(C)c3=O)CC2)n1</t>
+  </si>
+  <si>
+    <t>ZINC000056103857</t>
+  </si>
+  <si>
+    <t>Cn1cc(S(=O)(=O)[N-]CC(=O)NCC(F)(F)F)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>Cn1cc(S(=O)(=O)NCC(=O)NCC(F)(F)F)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000096099679</t>
+  </si>
+  <si>
+    <t>CNC(=O)CS(=O)(=O)C1CCN(S(=O)(=O)c2c[nH]cn2)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000072423560</t>
+  </si>
+  <si>
+    <t>NC(=O)NCC(=O)N1CCN(Cc2ccncc2)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000825253214</t>
+  </si>
+  <si>
+    <t>Cc1c[nH+]ccc1NCC[N-]S(=O)(=O)c1cn(C)c(=O)n(C)c1=O</t>
+  </si>
+  <si>
+    <t>ZINC000016047703</t>
+  </si>
+  <si>
+    <t>O=C(c1ccco1)N1CCN(S(=O)(=O)c2c[nH]c(=O)[nH]c2=O)CC1</t>
+  </si>
+  <si>
+    <t>ZINC000077470908</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)CN1CCN(C(=O)C2(C(N)=O)CC2)C2CS(=O)(=O)CC21</t>
+  </si>
+  <si>
+    <t>ZINC000004095645</t>
+  </si>
+  <si>
+    <t>CC(C)CC(NC(=O)C1OC1C(=O)[O-])C(=O)NCCCCNC(N)=[NH2+]</t>
   </si>
 </sst>
 </file>
@@ -4347,6 +4965,3882 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1219200" y="369760500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="373570500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="377380500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="381190500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="385000500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="388810500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="392620500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="396430500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="400240500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="404050500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="407860500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="411670500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="415480500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="419290500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="423100500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="426910500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="430720500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="434530500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 116" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="438340500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 117" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="442150500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 118" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="445960500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="449770500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 120" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="453580500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 121" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId121"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="457390500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 122" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="461200500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 123" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId123"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="465010500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Picture 124" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="468820500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 125" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="472630500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Picture 126" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="476440500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Picture 127" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId127"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="480250500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Picture 128" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="484060500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Picture 129" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId129"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="487870500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Picture 130" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="491680500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Picture 131" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId131"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="495490500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Picture 132" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId132"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="499300500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Picture 133" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId133"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="503110500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 134" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId134"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="506920500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Picture 135" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId135"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="510730500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Picture 136" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId136"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="514540500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Picture 137" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId137"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="518350500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Picture 138" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId138"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="522160500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Picture 139" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId139"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="525970500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Picture 140" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId140"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="529780500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Picture 141" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId141"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="533590500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Picture 142" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="537400500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Picture 143" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId143"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="541210500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Picture 144" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId144"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="545020500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Picture 145" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="548830500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Picture 146" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId146"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="552640500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Picture 147" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId147"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="556450500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Picture 148" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId148"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="560260500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Picture 149" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId149"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="564070500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Picture 150" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId150"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="567880500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Picture 151" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId151"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571690500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Picture 152" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId152"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="575500500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Picture 153" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId153"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="579310500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Picture 154" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId154"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="583120500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Picture 155" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId155"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="586930500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Picture 156" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId156"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="590740500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="Picture 157" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId157"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="594550500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="Picture 158" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId158"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="598360500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="Picture 159" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId159"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="602170500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="Picture 160" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId160"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="605980500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="Picture 161" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId161"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="609790500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="Picture 162" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId162"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="613600500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="Picture 163" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId163"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="617410500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Picture 164" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId164"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="621220500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="Picture 165" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId165"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="625030500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="Picture 166" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId166"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="628840500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="Picture 167" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId167"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="632650500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="Picture 168" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId168"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="636460500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="Picture 169" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId169"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="640270500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="Picture 170" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId170"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="644080500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Picture 171" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId171"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="647890500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="Picture 172" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId172"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="651700500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="174" name="Picture 173" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId173"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="655510500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="175" name="Picture 174" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId174"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="659320500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="Picture 175" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId175"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="663130500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="Picture 176" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId176"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="666940500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="Picture 177" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId177"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="670750500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="Picture 178" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId178"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="674560500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="Picture 179" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId179"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="678370500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="Picture 180" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId180"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="682180500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="Picture 181" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId181"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="685990500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Picture 182" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId182"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="689800500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Picture 183" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId183"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="693610500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="Picture 184" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId184"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="697420500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Picture 185" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId185"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="701230500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="187" name="Picture 186" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId186"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="705040500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Picture 187" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId187"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="708850500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Picture 188" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId188"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="712660500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Picture 189" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId189"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="716470500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="191" name="Picture 190" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId190"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="720280500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="Picture 191" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId191"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="724090500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="193" name="Picture 192" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId192"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="727900500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="194" name="Picture 193" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId193"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="731710500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="195" name="Picture 194" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId194"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="735520500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="196" name="Picture 195" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId195"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="739330500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="197" name="Picture 196" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId196"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="743140500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="198" name="Picture 197" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId197"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="746950500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="199" name="Picture 198" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId198"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="750760500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="Picture 199" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId199"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="754570500"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2857500</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>2857500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="201" name="Picture 200" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId200"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="758380500"/>
           <a:ext cx="2857500" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4644,7 +9138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4681,13 +9175,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>351.352</v>
+        <v>373.4300000000002</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>0.4451977401129943</v>
+        <v>0.06257378984651712</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="300" customHeight="1">
@@ -4698,13 +9192,13 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>354.359</v>
+        <v>350.4560000000002</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4429824561403509</v>
+        <v>0.06743002544529263</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" customHeight="1">
@@ -4715,183 +9209,183 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>355.343</v>
+        <v>360.3270000000002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4343096234309624</v>
+        <v>0.06763285024154589</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="300" customHeight="1">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5">
-        <v>358.3030000000001</v>
+        <v>359.3190000000001</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>0.4333050127442651</v>
+        <v>0.06763285024154589</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="300" customHeight="1">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6">
-        <v>370.3580000000001</v>
+        <v>350.4560000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.433048433048433</v>
+        <v>0.07623888182973317</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="300" customHeight="1">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7">
-        <v>355.343</v>
+        <v>360.4100000000001</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>0.4324979789814066</v>
+        <v>0.09040178571428571</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="300" customHeight="1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>355.343</v>
+        <v>361.4180000000001</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8">
-        <v>0.4315701091519731</v>
+        <v>0.09040178571428571</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="300" customHeight="1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>354.359</v>
+        <v>350.4260000000002</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4247135842880524</v>
+        <v>0.1136865342163355</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="300" customHeight="1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>359.351</v>
+        <v>371.4140000000002</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>0.4192949907235621</v>
+        <v>0.115171650055371</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="300" customHeight="1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>373.3340000000001</v>
+        <v>373.4100000000001</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4083769633507853</v>
+        <v>0.1152993348115299</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="300" customHeight="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>358.3430000000001</v>
+        <v>356.4270000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4067632850241546</v>
+        <v>0.1168687982359427</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="300" customHeight="1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>366.37</v>
+        <v>352.3430000000001</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4056687333923826</v>
+        <v>0.1190751445086705</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="300" customHeight="1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>349.341</v>
+        <v>351.4510000000001</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3979148566463944</v>
+        <v>0.120507399577167</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="300" customHeight="1">
@@ -4899,101 +9393,101 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>350.349</v>
+        <v>354.2320000000001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3979148566463944</v>
+        <v>0.1210898082744702</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="300" customHeight="1">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="D16">
-        <v>356.3270000000001</v>
+        <v>371.4140000000002</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16">
-        <v>0.3856858846918489</v>
+        <v>0.123196448390677</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="300" customHeight="1">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
       <c r="D17">
-        <v>354.311</v>
+        <v>350.3200000000001</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3776282590412111</v>
+        <v>0.1343115124153499</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="300" customHeight="1">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="D18">
-        <v>359.307</v>
+        <v>358.3950000000002</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.376657824933687</v>
+        <v>0.1343445287107259</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="300" customHeight="1">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
       <c r="D19">
-        <v>369.302</v>
+        <v>365.3900000000002</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3746130030959752</v>
+        <v>0.1365422396856582</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="300" customHeight="1">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="D20">
-        <v>370.31</v>
+        <v>370.4100000000002</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3746130030959752</v>
+        <v>0.1388329979879276</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="300" customHeight="1">
@@ -5004,13 +9498,13 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>372.3700000000001</v>
+        <v>357.4550000000002</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3727758007117438</v>
+        <v>0.1391585760517799</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="300" customHeight="1">
@@ -5021,13 +9515,13 @@
         <v>45</v>
       </c>
       <c r="D22">
-        <v>357.335</v>
+        <v>368.4590000000002</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3717047451669596</v>
+        <v>0.1394422310756972</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="300" customHeight="1">
@@ -5038,1305 +9532,3039 @@
         <v>47</v>
       </c>
       <c r="D23">
-        <v>354.311</v>
+        <v>352.4340000000001</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3690851735015773</v>
+        <v>0.140295358649789</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="300" customHeight="1">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>353.3030000000001</v>
+        <v>362.3790000000001</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3690851735015773</v>
+        <v>0.1403118040089087</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="300" customHeight="1">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>353.3030000000001</v>
+        <v>352.3470000000001</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3564139941690962</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="300" customHeight="1">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D26">
-        <v>354.311</v>
+        <v>370.4060000000003</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.3564139941690962</v>
+        <v>0.1437435367114788</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="300" customHeight="1">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>372.4030000000001</v>
+        <v>366.3750000000001</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F27">
-        <v>0.3463203463203463</v>
+        <v>0.1444788441692466</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="300" customHeight="1">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>356.4040000000002</v>
+        <v>354.4550000000002</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.3441514536849222</v>
+        <v>0.1450459652706844</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="300" customHeight="1">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>357.3880000000001</v>
+        <v>374.4420000000001</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.3414459556191839</v>
+        <v>0.1469681397738952</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="300" customHeight="1">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D30">
-        <v>372.4030000000001</v>
+        <v>361.5120000000002</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.3414264036418816</v>
+        <v>0.1479642502482622</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="300" customHeight="1">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D31">
-        <v>354.2710000000002</v>
+        <v>366.3340000000001</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F31">
-        <v>0.3386426592797784</v>
+        <v>0.1486220472440945</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="300" customHeight="1">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>352.3760000000001</v>
+        <v>362.4960000000002</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.3380182712579058</v>
+        <v>0.1492693110647182</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="300" customHeight="1">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D33">
-        <v>370.2940000000002</v>
+        <v>354.4320000000001</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.3366266760762174</v>
+        <v>0.1493570722057369</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="300" customHeight="1">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D34">
-        <v>352.3760000000001</v>
+        <v>374.5070000000002</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.3357771260997067</v>
+        <v>0.1495983935742972</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="300" customHeight="1">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D35">
-        <v>372.3810000000001</v>
+        <v>359.3830000000001</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.3353080568720379</v>
+        <v>0.1496311907270811</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="300" customHeight="1">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>370.2940000000002</v>
+        <v>358.2590000000001</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F36">
-        <v>0.3323903818953324</v>
+        <v>0.1509433962264151</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="300" customHeight="1">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D37">
-        <v>358.4200000000002</v>
+        <v>368.4810000000003</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.3309466984884646</v>
+        <v>0.1547248182762201</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="300" customHeight="1">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D38">
-        <v>358.3760000000001</v>
+        <v>367.4500000000002</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.3308605341246291</v>
+        <v>0.1556701030927835</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="300" customHeight="1">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D39">
-        <v>370.3140000000001</v>
+        <v>368.4560000000001</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.3307790549169859</v>
+        <v>0.1570482497634816</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="300" customHeight="1">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D40">
-        <v>360.3920000000001</v>
+        <v>355.4570000000001</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.3292402148887184</v>
+        <v>0.1594360086767896</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="300" customHeight="1">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D41">
-        <v>365.3940000000001</v>
+        <v>363.4690000000001</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.3285266457680251</v>
+        <v>0.1595330739299611</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="300" customHeight="1">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D42">
-        <v>351.3630000000001</v>
+        <v>350.3860000000001</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.3282732447817837</v>
+        <v>0.1603336422613531</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="300" customHeight="1">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D43">
-        <v>370.4310000000002</v>
+        <v>370.3100000000001</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.3281027104136947</v>
+        <v>0.1609442060085837</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="300" customHeight="1">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D44">
-        <v>352.351</v>
+        <v>374.4480000000001</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.3264411027568923</v>
+        <v>0.1610738255033557</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="300" customHeight="1">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D45">
-        <v>370.3140000000001</v>
+        <v>369.4510000000001</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.3251088534107402</v>
+        <v>0.1618773946360153</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="300" customHeight="1">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D46">
-        <v>351.363</v>
+        <v>358.2620000000001</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F46">
-        <v>0.324425108763207</v>
+        <v>0.1628122109158187</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="300" customHeight="1">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D47">
-        <v>366.378</v>
+        <v>374.3900000000002</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.3243574051407589</v>
+        <v>0.1637305699481865</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="300" customHeight="1">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D48">
-        <v>366.3780000000002</v>
+        <v>361.4200000000001</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.3242405455672659</v>
+        <v>0.1642651296829971</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="300" customHeight="1">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D49">
-        <v>365.3900000000002</v>
+        <v>354.4500000000002</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.323656578134651</v>
+        <v>0.1642651296829971</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="300" customHeight="1">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D50">
-        <v>352.351</v>
+        <v>359.3590000000001</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F50">
-        <v>0.3233128834355828</v>
+        <v>0.1642710472279261</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="300" customHeight="1">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D51">
-        <v>365.1670000000001</v>
+        <v>350.4410000000002</v>
       </c>
       <c r="E51">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.3232841565105837</v>
+        <v>0.1643286573146293</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="300" customHeight="1">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D52">
-        <v>351.3630000000001</v>
+        <v>359.4040000000001</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.3227302849569251</v>
+        <v>0.1653543307086614</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="300" customHeight="1">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D53">
-        <v>368.35</v>
+        <v>354.3670000000002</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.3217338217338218</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="300" customHeight="1">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D54">
-        <v>353.335</v>
+        <v>364.2920000000001</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.3209647495361781</v>
+        <v>0.1670040485829959</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="300" customHeight="1">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D55">
-        <v>357.3920000000002</v>
+        <v>352.4340000000001</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.3194748358862144</v>
+        <v>0.1671469740634006</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="300" customHeight="1">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D56">
-        <v>370.3180000000002</v>
+        <v>366.2620000000001</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.3188518231186966</v>
+        <v>0.167420814479638</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="300" customHeight="1">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D57">
-        <v>368.371</v>
+        <v>350.4410000000002</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.317817014446228</v>
+        <v>0.1678463094034378</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="300" customHeight="1">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D58">
-        <v>367.3630000000001</v>
+        <v>352.4340000000001</v>
       </c>
       <c r="E58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.317817014446228</v>
+        <v>0.1687681862269641</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="300" customHeight="1">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D59">
-        <v>353.335</v>
+        <v>351.4070000000002</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.3162393162393162</v>
+        <v>0.1705653021442495</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="300" customHeight="1">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D60">
-        <v>363.1240000000001</v>
+        <v>354.323</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.3150773195876289</v>
+        <v>0.1714836223506744</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="300" customHeight="1">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D61">
-        <v>361.4060000000001</v>
+        <v>351.4540000000001</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.3149752475247525</v>
+        <v>0.1728748806112703</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="300" customHeight="1">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D62">
-        <v>374.4050000000001</v>
+        <v>364.4350000000001</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.3148648648648649</v>
+        <v>0.1762652705061082</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="300" customHeight="1">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D63">
-        <v>374.4050000000001</v>
+        <v>354.4400000000001</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.3148648648648649</v>
+        <v>0.1767626613704071</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="300" customHeight="1">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D64">
-        <v>371.4630000000001</v>
+        <v>373.4560000000002</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.314359637774903</v>
+        <v>0.1782086795937211</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="300" customHeight="1">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D65">
-        <v>357.3020000000001</v>
+        <v>362.4960000000002</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.3137755102040816</v>
+        <v>0.1787487586891758</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="300" customHeight="1">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D66">
-        <v>363.1980000000001</v>
+        <v>355.4390000000001</v>
       </c>
       <c r="E66">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.3134130146082337</v>
+        <v>0.1808118081180812</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="300" customHeight="1">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D67">
-        <v>357.388</v>
+        <v>372.491</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.310760667903525</v>
+        <v>0.1809787626962142</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="300" customHeight="1">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D68">
-        <v>369.3740000000001</v>
+        <v>351.4060000000001</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.3103748910200523</v>
+        <v>0.1811175337186898</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="300" customHeight="1">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D69">
-        <v>351.3630000000001</v>
+        <v>366.4220000000002</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.3098782138024357</v>
+        <v>0.1812386156648452</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="300" customHeight="1">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D70">
-        <v>362.14</v>
+        <v>353.3550000000001</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F70">
-        <v>0.3093112244897959</v>
+        <v>0.1830574488802337</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="300" customHeight="1">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D71">
-        <v>370.4270000000001</v>
+        <v>361.3580000000001</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.3091042584434655</v>
+        <v>0.183348095659876</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="300" customHeight="1">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D72">
-        <v>370.099</v>
+        <v>370.4830000000003</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.3085260115606936</v>
+        <v>0.183803457688808</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="300" customHeight="1">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D73">
-        <v>369.3840000000001</v>
+        <v>372.4510000000001</v>
       </c>
       <c r="E73">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.308381317978247</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="300" customHeight="1">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D74">
-        <v>370.3920000000001</v>
+        <v>355.4390000000001</v>
       </c>
       <c r="E74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.308381317978247</v>
+        <v>0.1852189781021898</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="300" customHeight="1">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D75">
-        <v>354.3630000000001</v>
+        <v>353.4000000000002</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.3073015873015873</v>
+        <v>0.1864406779661017</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="300" customHeight="1">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D76">
-        <v>368.371</v>
+        <v>362.379</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.3072100313479624</v>
+        <v>0.186536901865369</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="300" customHeight="1">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D77">
-        <v>367.3630000000001</v>
+        <v>361.371</v>
       </c>
       <c r="E77">
         <v>-1</v>
       </c>
       <c r="F77">
-        <v>0.3072100313479624</v>
+        <v>0.186536901865369</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="300" customHeight="1">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D78">
-        <v>361.2070000000001</v>
+        <v>361.4090000000001</v>
       </c>
       <c r="E78">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.3070063694267516</v>
+        <v>0.1891643709825528</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="300" customHeight="1">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D79">
-        <v>369.3840000000001</v>
+        <v>356.3460000000001</v>
       </c>
       <c r="E79">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.3069498069498069</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="300" customHeight="1">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D80">
-        <v>370.3920000000001</v>
+        <v>355.3380000000001</v>
       </c>
       <c r="E80">
         <v>-1</v>
       </c>
       <c r="F80">
-        <v>0.3069498069498069</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="300" customHeight="1">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D81">
-        <v>352.3910000000001</v>
+        <v>365.4300000000002</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.3065739570164349</v>
+        <v>0.1905609973285841</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="300" customHeight="1">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D82">
-        <v>364.4060000000002</v>
+        <v>364.4020000000002</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.3064833005893909</v>
+        <v>0.1918402777777778</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="300" customHeight="1">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D83">
-        <v>362.191</v>
+        <v>372.491</v>
       </c>
       <c r="E83">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.3062041360907272</v>
+        <v>0.1945945945945946</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="300" customHeight="1">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D84">
-        <v>370.4350000000002</v>
+        <v>354.3480000000001</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.3051398828887443</v>
+        <v>0.1948275862068966</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="300" customHeight="1">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D85">
-        <v>370.4350000000002</v>
+        <v>352.4390000000001</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.3051398828887443</v>
+        <v>0.1948998178506375</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="300" customHeight="1">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D86">
-        <v>362.3420000000001</v>
+        <v>350.3390000000002</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.3050847457627119</v>
+        <v>0.1949078138718174</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="300" customHeight="1">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D87">
-        <v>360.4360000000001</v>
+        <v>353.3090000000001</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F87">
-        <v>0.3044822256568779</v>
+        <v>0.1949152542372881</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="300" customHeight="1">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D88">
-        <v>361.2070000000001</v>
+        <v>353.4660000000001</v>
       </c>
       <c r="E88">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.3044328552803129</v>
+        <v>0.1953703703703704</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="300" customHeight="1">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D89">
-        <v>372.4470000000002</v>
+        <v>361.4240000000001</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.3040268456375839</v>
+        <v>0.195509822263798</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="300" customHeight="1">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D90">
-        <v>357.3920000000001</v>
+        <v>360.3050000000001</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.3036616161616162</v>
+        <v>0.1957627118644068</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="300" customHeight="1">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D91">
-        <v>370.3910000000001</v>
+        <v>352.372</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.3028455284552846</v>
+        <v>0.1973799126637555</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="300" customHeight="1">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D92">
-        <v>362.3900000000001</v>
+        <v>355.3910000000001</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.3026134800550206</v>
+        <v>0.1976450798990748</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="300" customHeight="1">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D93">
-        <v>357.3300000000002</v>
+        <v>361.4020000000001</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.3022049286640726</v>
+        <v>0.1979780960404381</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="300" customHeight="1">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D94">
-        <v>361.207</v>
+        <v>369.3930000000001</v>
       </c>
       <c r="E94">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.302048909451421</v>
+        <v>0.1984126984126984</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="300" customHeight="1">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D95">
-        <v>355.3720000000001</v>
+        <v>366.399</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0.3012967200610221</v>
+        <v>0.1991266375545852</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="300" customHeight="1">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D96">
-        <v>353.3790000000001</v>
+        <v>354.4070000000002</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.3010471204188482</v>
+        <v>0.1996197718631179</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="300" customHeight="1">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D97">
-        <v>374.4010000000001</v>
+        <v>353.4660000000001</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.3005743458838545</v>
+        <v>0.1998223801065719</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="300" customHeight="1">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D98">
-        <v>352.3910000000001</v>
+        <v>368.3730000000001</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F98">
-        <v>0.3002191380569759</v>
+        <v>0.1998284734133791</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="300" customHeight="1">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D99">
-        <v>367.3870000000002</v>
+        <v>365.4300000000001</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.3001310615989515</v>
+        <v>0.2005253940455342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="300" customHeight="1">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100">
+        <v>374.3020000000001</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0.201112140871177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="300" customHeight="1">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101">
+        <v>357.4360000000001</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0.2013536379018613</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="300" customHeight="1">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102">
+        <v>351.403</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0.2013888888888889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="300" customHeight="1">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103">
+        <v>366.1150000000001</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.2016949152542373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="300" customHeight="1">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104">
+        <v>357.4360000000001</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0.2020287404902789</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="300" customHeight="1">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105">
+        <v>358.4450000000001</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0.2024221453287197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="300" customHeight="1">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106">
+        <v>360.3660000000001</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0.2024482109227872</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="300" customHeight="1">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107">
+        <v>355.3910000000002</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0.2028740490278952</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="300" customHeight="1">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108">
+        <v>362.4340000000002</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0.2036727879799666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="300" customHeight="1">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109">
+        <v>350.3310000000001</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0.2036881810561609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="300" customHeight="1">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110">
+        <v>356.4480000000001</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0.2038161318300087</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="300" customHeight="1">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111">
+        <v>369.3930000000001</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0.2039586919104991</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="300" customHeight="1">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112">
+        <v>369.3550000000001</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0.2040441176470588</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="300" customHeight="1">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113">
+        <v>360.4220000000001</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0.2052810902896082</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="300" customHeight="1">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114">
+        <v>360.4220000000001</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.2052810902896082</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="300" customHeight="1">
+      <c r="A115" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115">
+        <v>364.4020000000002</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0.2053872053872054</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="300" customHeight="1">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116">
+        <v>367.4310000000002</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0.2065026362038664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="300" customHeight="1">
+      <c r="A117" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117">
+        <v>358.4240000000003</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0.2068645640074211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="300" customHeight="1">
+      <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118">
+        <v>360.4790000000002</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0.2075471698113208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="300" customHeight="1">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119">
+        <v>365.4140000000002</v>
+      </c>
+      <c r="E119">
+        <v>-1</v>
+      </c>
+      <c r="F119">
+        <v>0.2078285181733458</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="300" customHeight="1">
+      <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120">
+        <v>366.4220000000002</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0.2078285181733458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="300" customHeight="1">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121">
+        <v>356.3650000000001</v>
+      </c>
+      <c r="E121">
+        <v>-1</v>
+      </c>
+      <c r="F121">
+        <v>0.2081563296516568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="300" customHeight="1">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+      <c r="D122">
+        <v>371.4190000000003</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0.2086450540315877</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="300" customHeight="1">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123">
+        <v>365.4230000000001</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0.2093023255813954</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="300" customHeight="1">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124">
+        <v>351.3960000000001</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0.2093023255813954</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="300" customHeight="1">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125">
+        <v>373.4750000000001</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0.2094055013309672</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="300" customHeight="1">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126">
+        <v>360.3970000000001</v>
+      </c>
+      <c r="E126">
+        <v>-1</v>
+      </c>
+      <c r="F126">
+        <v>0.2097053726169844</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="300" customHeight="1">
+      <c r="A127" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" t="s">
+        <v>250</v>
+      </c>
+      <c r="D127">
+        <v>361.4050000000001</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0.2097053726169844</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="300" customHeight="1">
+      <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128">
+        <v>351.3870000000002</v>
+      </c>
+      <c r="E128">
+        <v>-1</v>
+      </c>
+      <c r="F128">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="300" customHeight="1">
+      <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+      <c r="D129">
+        <v>359.3650000000001</v>
+      </c>
+      <c r="E129">
+        <v>-1</v>
+      </c>
+      <c r="F129">
+        <v>0.2101167315175097</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="300" customHeight="1">
+      <c r="A130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+      <c r="D130">
+        <v>351.403</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0.2102127659574468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="300" customHeight="1">
+      <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131">
+        <v>360.4800000000001</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0.2105263157894737</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="300" customHeight="1">
+      <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132">
+        <v>358.4020000000002</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0.2110332749562172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="300" customHeight="1">
+      <c r="A133" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" t="s">
+        <v>262</v>
+      </c>
+      <c r="D133">
+        <v>373.3860000000002</v>
+      </c>
+      <c r="E133">
+        <v>-1</v>
+      </c>
+      <c r="F133">
+        <v>0.2110358180058083</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="300" customHeight="1">
+      <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" t="s">
+        <v>264</v>
+      </c>
+      <c r="D134">
+        <v>373.4130000000002</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0.2110469909315746</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="300" customHeight="1">
+      <c r="A135" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" t="s">
+        <v>266</v>
+      </c>
+      <c r="D135">
+        <v>357.4320000000002</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0.2113891285591027</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="300" customHeight="1">
+      <c r="A136" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136">
+        <v>350.4410000000002</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0.2115732368896926</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="300" customHeight="1">
+      <c r="A137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
+        <v>270</v>
+      </c>
+      <c r="D137">
+        <v>373.4350000000001</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0.2119967132292523</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="300" customHeight="1">
+      <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
+        <v>272</v>
+      </c>
+      <c r="D138">
+        <v>351.4510000000001</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0.2120481927710843</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="300" customHeight="1">
+      <c r="A139" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" t="s">
+        <v>274</v>
+      </c>
+      <c r="D139">
+        <v>368.3700000000001</v>
+      </c>
+      <c r="E139">
+        <v>-1</v>
+      </c>
+      <c r="F139">
+        <v>0.2122270742358079</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="300" customHeight="1">
+      <c r="A140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+      <c r="D140">
+        <v>369.378</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0.2122270742358079</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="300" customHeight="1">
+      <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>277</v>
+      </c>
+      <c r="D141">
+        <v>352.3910000000002</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0.2130857648099027</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="300" customHeight="1">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" t="s">
+        <v>279</v>
+      </c>
+      <c r="D142">
+        <v>373.4550000000001</v>
+      </c>
+      <c r="E142">
+        <v>-1</v>
+      </c>
+      <c r="F142">
+        <v>0.2131147540983606</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="300" customHeight="1">
+      <c r="A143" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
+      </c>
+      <c r="D143">
+        <v>361.4640000000001</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0.2133333333333333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="300" customHeight="1">
+      <c r="A144" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" t="s">
+        <v>283</v>
+      </c>
+      <c r="D144">
+        <v>353.4660000000001</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0.213713268032057</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="300" customHeight="1">
+      <c r="A145" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" t="s">
+        <v>285</v>
+      </c>
+      <c r="D145">
+        <v>364.4020000000001</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0.2138157894736842</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="300" customHeight="1">
+      <c r="A146" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+      <c r="D146">
+        <v>350.4230000000002</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0.2150259067357513</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="300" customHeight="1">
+      <c r="A147" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" t="s">
+        <v>289</v>
+      </c>
+      <c r="D147">
+        <v>366.3990000000002</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0.2152996845425867</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="300" customHeight="1">
+      <c r="A148" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" t="s">
+        <v>291</v>
+      </c>
+      <c r="D148">
+        <v>373.4750000000001</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0.2165217391304348</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="300" customHeight="1">
+      <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
+        <v>293</v>
+      </c>
+      <c r="D149">
+        <v>364.4020000000002</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0.2168989547038327</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="300" customHeight="1">
+      <c r="A150" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D150">
+        <v>362.4520000000001</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0.217353198948291</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="300" customHeight="1">
+      <c r="A151" t="s">
+        <v>296</v>
+      </c>
+      <c r="B151" t="s">
+        <v>297</v>
+      </c>
+      <c r="D151">
+        <v>364.4110000000001</v>
+      </c>
+      <c r="E151">
+        <v>-1</v>
+      </c>
+      <c r="F151">
+        <v>0.2173553719008264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="300" customHeight="1">
+      <c r="A152" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152">
+        <v>352.4140000000002</v>
+      </c>
+      <c r="E152">
+        <v>-1</v>
+      </c>
+      <c r="F152">
+        <v>0.2176211453744493</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="300" customHeight="1">
+      <c r="A153" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+      <c r="D153">
+        <v>356.4520000000002</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0.2181656277827249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="300" customHeight="1">
+      <c r="A154" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" t="s">
+        <v>303</v>
+      </c>
+      <c r="D154">
+        <v>361.4640000000001</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0.2183406113537118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="300" customHeight="1">
+      <c r="A155" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" t="s">
+        <v>305</v>
+      </c>
+      <c r="D155">
+        <v>354.3880000000001</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0.2184300341296928</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="300" customHeight="1">
+      <c r="A156" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" t="s">
+        <v>307</v>
+      </c>
+      <c r="D156">
+        <v>362.3900000000002</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0.219070133963751</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="300" customHeight="1">
+      <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" t="s">
+        <v>309</v>
+      </c>
+      <c r="D157">
+        <v>361.4640000000001</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0.2190812720848057</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="300" customHeight="1">
+      <c r="A158" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" t="s">
+        <v>311</v>
+      </c>
+      <c r="D158">
+        <v>373.4750000000001</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0.2191304347826087</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="300" customHeight="1">
+      <c r="A159" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" t="s">
+        <v>313</v>
+      </c>
+      <c r="D159">
+        <v>352.438</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0.2191544434857636</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="300" customHeight="1">
+      <c r="A160" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" t="s">
+        <v>315</v>
+      </c>
+      <c r="D160">
+        <v>353.4040000000001</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0.2193211488250653</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="300" customHeight="1">
+      <c r="A161" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" t="s">
+        <v>317</v>
+      </c>
+      <c r="D161">
+        <v>362.4130000000001</v>
+      </c>
+      <c r="E161">
+        <v>-1</v>
+      </c>
+      <c r="F161">
+        <v>0.2195121951219512</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="300" customHeight="1">
+      <c r="A162" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" t="s">
+        <v>319</v>
+      </c>
+      <c r="D162">
+        <v>365.4340000000001</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0.2196669310071372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="300" customHeight="1">
+      <c r="A163" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+      <c r="D163">
+        <v>371.4150000000001</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0.2198412698412698</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="300" customHeight="1">
+      <c r="A164" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" t="s">
+        <v>323</v>
+      </c>
+      <c r="D164">
+        <v>374.4630000000001</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0.2200165425971878</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="300" customHeight="1">
+      <c r="A165" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" t="s">
+        <v>325</v>
+      </c>
+      <c r="D165">
+        <v>361.4640000000001</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0.2200873362445415</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="300" customHeight="1">
+      <c r="A166" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" t="s">
+        <v>327</v>
+      </c>
+      <c r="D166">
+        <v>366.4180000000002</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0.2202643171806167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="300" customHeight="1">
+      <c r="A167" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" t="s">
+        <v>329</v>
+      </c>
+      <c r="D167">
+        <v>357.4360000000001</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0.2206235011990408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="300" customHeight="1">
+      <c r="A168" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" t="s">
+        <v>331</v>
+      </c>
+      <c r="D168">
+        <v>362.379</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0.2206537890044576</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="300" customHeight="1">
+      <c r="A169" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" t="s">
+        <v>333</v>
+      </c>
+      <c r="D169">
+        <v>355.3580000000001</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0.2208538587848933</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="300" customHeight="1">
+      <c r="A170" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" t="s">
+        <v>335</v>
+      </c>
+      <c r="D170">
+        <v>359.3860000000001</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0.2210884353741497</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="300" customHeight="1">
+      <c r="A171" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" t="s">
+        <v>337</v>
+      </c>
+      <c r="D171">
+        <v>358.3820000000002</v>
+      </c>
+      <c r="E171">
+        <v>-1</v>
+      </c>
+      <c r="F171">
+        <v>0.2211382113821138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="300" customHeight="1">
+      <c r="A172" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" t="s">
+        <v>339</v>
+      </c>
+      <c r="D172">
+        <v>362.3900000000002</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0.2214820982514571</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="300" customHeight="1">
+      <c r="A173" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" t="s">
+        <v>340</v>
+      </c>
+      <c r="D173">
+        <v>362.3900000000002</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0.2214820982514571</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="300" customHeight="1">
+      <c r="A174" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" t="s">
+        <v>342</v>
+      </c>
+      <c r="D174">
+        <v>362.3900000000002</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0.2217709179528838</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="300" customHeight="1">
+      <c r="A175" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" t="s">
+        <v>344</v>
+      </c>
+      <c r="D175">
+        <v>367.3580000000001</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0.22181146025878</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="300" customHeight="1">
+      <c r="A176" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" t="s">
+        <v>346</v>
+      </c>
+      <c r="D176">
+        <v>350.4230000000002</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0.2218340611353712</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="300" customHeight="1">
+      <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" t="s">
+        <v>348</v>
+      </c>
+      <c r="D177">
+        <v>355.4640000000001</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0.2223140495867769</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="300" customHeight="1">
+      <c r="A178" t="s">
+        <v>349</v>
+      </c>
+      <c r="B178" t="s">
+        <v>350</v>
+      </c>
+      <c r="D178">
+        <v>352.3910000000002</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0.2224108658743633</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="300" customHeight="1">
+      <c r="A179" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" t="s">
+        <v>352</v>
+      </c>
+      <c r="D179">
+        <v>356.4630000000001</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0.2233183856502242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="300" customHeight="1">
+      <c r="A180" t="s">
+        <v>353</v>
+      </c>
+      <c r="B180" t="s">
+        <v>354</v>
+      </c>
+      <c r="D180">
+        <v>355.4200000000001</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0.2233589087809037</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="300" customHeight="1">
+      <c r="A181" t="s">
+        <v>355</v>
+      </c>
+      <c r="B181" t="s">
+        <v>356</v>
+      </c>
+      <c r="D181">
+        <v>360.4120000000001</v>
+      </c>
+      <c r="E181">
+        <v>-1</v>
+      </c>
+      <c r="F181">
+        <v>0.223717409587889</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="300" customHeight="1">
+      <c r="A182" t="s">
+        <v>357</v>
+      </c>
+      <c r="B182" t="s">
+        <v>358</v>
+      </c>
+      <c r="D182">
+        <v>361.4640000000001</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0.2238675958188153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="300" customHeight="1">
+      <c r="A183" t="s">
+        <v>359</v>
+      </c>
+      <c r="B183" t="s">
+        <v>360</v>
+      </c>
+      <c r="D183">
+        <v>361.391</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0.2242152466367713</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="300" customHeight="1">
+      <c r="A184" t="s">
+        <v>361</v>
+      </c>
+      <c r="B184" t="s">
+        <v>362</v>
+      </c>
+      <c r="D184">
+        <v>350.4190000000002</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0.2246256239600666</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="300" customHeight="1">
+      <c r="A185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B185" t="s">
+        <v>364</v>
+      </c>
+      <c r="D185">
+        <v>362.3310000000001</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0.2253968253968254</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="300" customHeight="1">
+      <c r="A186" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" t="s">
+        <v>366</v>
+      </c>
+      <c r="D186">
+        <v>352.3720000000002</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0.2254098360655738</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="300" customHeight="1">
+      <c r="A187" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187" t="s">
+        <v>368</v>
+      </c>
+      <c r="D187">
+        <v>361.4640000000001</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0.2254134029590949</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="300" customHeight="1">
+      <c r="A188" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" t="s">
+        <v>370</v>
+      </c>
+      <c r="D188">
+        <v>357.4360000000001</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0.2257799671592775</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="300" customHeight="1">
+      <c r="A189" t="s">
+        <v>371</v>
+      </c>
+      <c r="B189" t="s">
+        <v>372</v>
+      </c>
+      <c r="D189">
+        <v>354.3440000000001</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0.2257818459191457</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="300" customHeight="1">
+      <c r="A190" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" t="s">
+        <v>374</v>
+      </c>
+      <c r="D190">
+        <v>351.4110000000002</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0.2259696458684654</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="300" customHeight="1">
+      <c r="A191" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" t="s">
+        <v>376</v>
+      </c>
+      <c r="D191">
+        <v>359.4480000000001</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0.2261904761904762</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="300" customHeight="1">
+      <c r="A192" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" t="s">
+        <v>378</v>
+      </c>
+      <c r="D192">
+        <v>364.449</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0.2263993316624895</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="300" customHeight="1">
+      <c r="A193" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193" t="s">
+        <v>380</v>
+      </c>
+      <c r="D193">
+        <v>360.3740000000002</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0.2267396403440188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="300" customHeight="1">
+      <c r="A194" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" t="s">
+        <v>382</v>
+      </c>
+      <c r="D194">
+        <v>357.2900000000001</v>
+      </c>
+      <c r="E194">
+        <v>-1</v>
+      </c>
+      <c r="F194">
+        <v>0.2268370607028754</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="300" customHeight="1">
+      <c r="A195" t="s">
+        <v>381</v>
+      </c>
+      <c r="B195" t="s">
+        <v>383</v>
+      </c>
+      <c r="D195">
+        <v>358.2980000000001</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0.2268370607028754</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="300" customHeight="1">
+      <c r="A196" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" t="s">
+        <v>385</v>
+      </c>
+      <c r="D196">
+        <v>350.4220000000001</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0.2272727272727273</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="300" customHeight="1">
+      <c r="A197" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" t="s">
+        <v>387</v>
+      </c>
+      <c r="D197">
+        <v>367.4310000000002</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0.2273476112026359</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="300" customHeight="1">
+      <c r="A198" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" t="s">
+        <v>389</v>
+      </c>
+      <c r="D198">
+        <v>353.4040000000001</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0.2276612276612276</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="300" customHeight="1">
+      <c r="A199" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" t="s">
+        <v>391</v>
+      </c>
+      <c r="D199">
+        <v>354.3440000000002</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0.228395061728395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="300" customHeight="1">
+      <c r="A200" t="s">
+        <v>392</v>
+      </c>
+      <c r="B200" t="s">
+        <v>393</v>
+      </c>
+      <c r="D200">
+        <v>372.4470000000001</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0.2286661143330572</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="300" customHeight="1">
+      <c r="A201" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" t="s">
+        <v>395</v>
+      </c>
+      <c r="D201">
+        <v>357.4110000000002</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0.2287334593572779</v>
       </c>
     </row>
   </sheetData>
